--- a/output/poportion1.xlsx
+++ b/output/poportion1.xlsx
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.05913900913900914</v>
       </c>
       <c r="D2">
-        <v>0.1144895516892203</v>
+        <v>0.03763763763763764</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1109192394906681</v>
       </c>
       <c r="F2">
-        <v>0.02878787878787879</v>
+        <v>0.002880184331797235</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.02943121693121694</v>
       </c>
       <c r="H2">
-        <v>0.05672514619883041</v>
+        <v>0.0121976647206005</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,7 +452,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.05913900913900914</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00576923076923077</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1144895516892203</v>
+        <v>0.03763763763763764</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -496,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.143452380952381</v>
+        <v>0.1608209423426815</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.1109192394906681</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -512,7 +512,13 @@
       <c r="D5">
         <v>0</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
@@ -524,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02878787878787879</v>
+        <v>0.002880184331797235</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -542,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.03404255319148936</v>
+        <v>0.05174291938997821</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -550,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.02943121693121694</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -558,8 +564,14 @@
       <c r="D7">
         <v>0</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
       <c r="F7">
         <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -570,19 +582,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05672514619883041</v>
+        <v>0.0121976647206005</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.00576923076923077</v>
       </c>
       <c r="D8">
-        <v>0.143452380952381</v>
+        <v>0.1608209423426815</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03404255319148936</v>
+        <v>0.05174291938997821</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/output/poportion1.xlsx
+++ b/output/poportion1.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
-    <t>เมจิ</t>
+    <t>ซีพีเมจิ</t>
   </si>
   <si>
     <t>ดัชมิลล์</t>
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05913900913900914</v>
+        <v>0.0385489256678281</v>
       </c>
       <c r="D2">
-        <v>0.03763763763763764</v>
+        <v>0.05096447669977081</v>
       </c>
       <c r="E2">
-        <v>0.1109192394906681</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.002880184331797235</v>
+        <v>0.008285944108091759</v>
       </c>
       <c r="G2">
-        <v>0.02943121693121694</v>
+        <v>0.02193507802060434</v>
       </c>
       <c r="H2">
-        <v>0.0121976647206005</v>
+        <v>0.1385718539334677</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.05913900913900914</v>
+        <v>0.0385489256678281</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.09291101055806938</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.02540322580645161</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.00576923076923077</v>
+        <v>0.002744273024777933</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,10 +478,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03763763763763764</v>
+        <v>0.05096447669977081</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.09291101055806938</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.04947339246119734</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1608209423426815</v>
+        <v>0.06137334422843749</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1109192394906681</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -530,16 +530,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.002880184331797235</v>
+        <v>0.008285944108091759</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.02540322580645161</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.04947339246119734</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.05174291938997821</v>
+        <v>0.02196271564692618</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02943121693121694</v>
+        <v>0.02193507802060434</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0121976647206005</v>
+        <v>0.1385718539334677</v>
       </c>
       <c r="C8">
-        <v>0.00576923076923077</v>
+        <v>0.002744273024777933</v>
       </c>
       <c r="D8">
-        <v>0.1608209423426815</v>
+        <v>0.06137334422843749</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05174291938997821</v>
+        <v>0.02196271564692618</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/output/poportion1.xlsx
+++ b/output/poportion1.xlsx
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0385489256678281</v>
+        <v>0.2393167789001122</v>
       </c>
       <c r="D2">
-        <v>0.05096447669977081</v>
+        <v>0.05763434713434713</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.008285944108091759</v>
+        <v>0.007886487928504736</v>
       </c>
       <c r="G2">
-        <v>0.02193507802060434</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.1385718539334677</v>
+        <v>0.03562472898113036</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0385489256678281</v>
+        <v>0.2393167789001122</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.09291101055806938</v>
+        <v>0.1217443069310824</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.1044721871049305</v>
       </c>
       <c r="F3">
-        <v>0.02540322580645161</v>
+        <v>0.01182269833876727</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.002744273024777933</v>
+        <v>0.1394216477518186</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,10 +478,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.05096447669977081</v>
+        <v>0.05763434713434713</v>
       </c>
       <c r="C4">
-        <v>0.09291101055806938</v>
+        <v>0.1217443069310824</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.04947339246119734</v>
+        <v>0.0234375</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.06137334422843749</v>
+        <v>0.1163168647965945</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.1044721871049305</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -516,13 +516,13 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.04166666666666666</v>
+        <v>0.03299319727891156</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.08780724483849484</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,16 +530,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.008285944108091759</v>
+        <v>0.007886487928504736</v>
       </c>
       <c r="C6">
-        <v>0.02540322580645161</v>
+        <v>0.01182269833876727</v>
       </c>
       <c r="D6">
-        <v>0.04947339246119734</v>
+        <v>0.0234375</v>
       </c>
       <c r="E6">
-        <v>0.04166666666666666</v>
+        <v>0.03299319727891156</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.02196271564692618</v>
+        <v>0.01328959584773538</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02193507802060434</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1385718539334677</v>
+        <v>0.03562472898113036</v>
       </c>
       <c r="C8">
-        <v>0.002744273024777933</v>
+        <v>0.1394216477518186</v>
       </c>
       <c r="D8">
-        <v>0.06137334422843749</v>
+        <v>0.1163168647965945</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.08780724483849484</v>
       </c>
       <c r="F8">
-        <v>0.02196271564692618</v>
+        <v>0.01328959584773538</v>
       </c>
       <c r="G8">
         <v>0</v>
